--- a/Essential Statistics for data analysis using Excel/statistics module 5.xlsx
+++ b/Essential Statistics for data analysis using Excel/statistics module 5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Abhishek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Abhishek\Essential Statistics for data analysis using Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27AF2F0-1630-46D4-BA3A-1DE9F190C29F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E52E89-4FDF-4665-90FF-F41235C02D49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{C84A00AD-29E3-4991-8FCA-3D6224548C22}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>h0</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>March Best</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,6 +1033,9 @@
         <f>G23&lt;=D23</f>
         <v>1</v>
       </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1155,7 +1161,7 @@
         <v>50</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I37" si="0">SUM(G34:H34)</f>
+        <f t="shared" ref="I34:I36" si="0">SUM(G34:H34)</f>
         <v>100</v>
       </c>
     </row>
